--- a/miscampso.xlsx
+++ b/miscampso.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495FE46F-69CC-41F3-ADF9-004ACB516F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593BCAEC-FE1F-40AF-A739-ADE08DD06077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="50">
   <si>
     <t>idCampo</t>
   </si>
@@ -166,10 +166,13 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>Sp</t>
-  </si>
-  <si>
     <t>Modal de busqueda</t>
+  </si>
+  <si>
+    <t>Sp con parametros</t>
+  </si>
+  <si>
+    <t>Sp sin parametros</t>
   </si>
 </sst>
 </file>
@@ -919,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1016,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBF6590-8FC8-4E60-B96B-7B2019AC3AFB}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1051,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
